--- a/Code/Results/Cases/Case_1_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.219803940680094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4531768393355833</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03455949727961549</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16.61757860195047</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002760452391471631</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.961193417866752</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3795902245874316</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.06999749926689</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4061823115343657</v>
+      </c>
+      <c r="E3">
+        <v>0.03442771589890548</v>
+      </c>
+      <c r="F3">
+        <v>15.94429887281933</v>
+      </c>
+      <c r="G3">
+        <v>0.002790551577743994</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3.481483530428136</v>
+      </c>
+      <c r="J3">
+        <v>0.37044609920288</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.9775436500523824</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.3780022392363094</v>
+      </c>
+      <c r="E4">
+        <v>0.03435067125210711</v>
+      </c>
+      <c r="F4">
+        <v>15.5519905457262</v>
+      </c>
+      <c r="G4">
+        <v>0.002809758278963031</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.186307868167489</v>
+      </c>
+      <c r="J4">
+        <v>0.3652638093507647</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.9397517899388959</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.3666736056238165</v>
+      </c>
+      <c r="E5">
+        <v>0.03432018617865396</v>
+      </c>
+      <c r="F5">
+        <v>15.39716025422388</v>
+      </c>
+      <c r="G5">
+        <v>0.002817770917795461</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.065876933592335</v>
+      </c>
+      <c r="J5">
+        <v>0.3632563487056899</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.9334695415148531</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.3648014420176651</v>
+      </c>
+      <c r="E6">
+        <v>0.03431517746272306</v>
+      </c>
+      <c r="F6">
+        <v>15.37174770490441</v>
+      </c>
+      <c r="G6">
+        <v>0.002819112722300159</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3.045871178739986</v>
+      </c>
+      <c r="J6">
+        <v>0.3629291934898333</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.9770344427025179</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.3778488486094602</v>
+      </c>
+      <c r="E7">
+        <v>0.03435025650880519</v>
+      </c>
+      <c r="F7">
+        <v>15.54988238658296</v>
+      </c>
+      <c r="G7">
+        <v>0.002809865584200053</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.184684259837638</v>
+      </c>
+      <c r="J7">
+        <v>0.3652363189823404</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.16825010538281</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.4368239347835186</v>
+      </c>
+      <c r="E8">
+        <v>0.03451321736391932</v>
+      </c>
+      <c r="F8">
+        <v>16.38089038115288</v>
+      </c>
+      <c r="G8">
+        <v>0.002770681999746162</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.795928923952317</v>
+      </c>
+      <c r="J8">
+        <v>0.3763449242772339</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.539389405566055</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.5585445339488615</v>
+      </c>
+      <c r="E9">
+        <v>0.03486651593950452</v>
+      </c>
+      <c r="F9">
+        <v>18.19072676658504</v>
+      </c>
+      <c r="G9">
+        <v>0.002699443865828446</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4.989014804984947</v>
+      </c>
+      <c r="J9">
+        <v>0.4017700082120825</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.809644099351601</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.6527586098400775</v>
+      </c>
+      <c r="E10">
+        <v>0.03515126281060343</v>
+      </c>
+      <c r="F10">
+        <v>19.64986193401671</v>
+      </c>
+      <c r="G10">
+        <v>0.002650285546748898</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5.861568061238813</v>
+      </c>
+      <c r="J10">
+        <v>0.4229906608995293</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.932050532542007</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.6969244699673141</v>
+      </c>
+      <c r="E11">
+        <v>0.03528741265823676</v>
+      </c>
+      <c r="F11">
+        <v>20.34658014010256</v>
+      </c>
+      <c r="G11">
+        <v>0.002628556658991364</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6.25753114434093</v>
+      </c>
+      <c r="J11">
+        <v>0.4332752472980133</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.97832434447588</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.7138613353401411</v>
+      </c>
+      <c r="E12">
+        <v>0.03534002662973723</v>
+      </c>
+      <c r="F12">
+        <v>20.61558911715952</v>
+      </c>
+      <c r="G12">
+        <v>0.002620414568093985</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6.40732256066849</v>
+      </c>
+      <c r="J12">
+        <v>0.4372677855223799</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.968361989861819</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.710203829963632</v>
+      </c>
+      <c r="E13">
+        <v>0.03532864646563461</v>
+      </c>
+      <c r="F13">
+        <v>20.55741554012957</v>
+      </c>
+      <c r="G13">
+        <v>0.00262216436315958</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.375069214559744</v>
+      </c>
+      <c r="J13">
+        <v>0.4364034404456731</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.935859098656465</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.6983134761572387</v>
+      </c>
+      <c r="E14">
+        <v>0.03529171941561327</v>
+      </c>
+      <c r="F14">
+        <v>20.36860525510417</v>
+      </c>
+      <c r="G14">
+        <v>0.002627885106542763</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.269857673435695</v>
+      </c>
+      <c r="J14">
+        <v>0.4336017081373882</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.915939811075191</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.6910586850033837</v>
+      </c>
+      <c r="E15">
+        <v>0.0352692414931548</v>
+      </c>
+      <c r="F15">
+        <v>20.25364142402282</v>
+      </c>
+      <c r="G15">
+        <v>0.002631400295665998</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.205392518134602</v>
+      </c>
+      <c r="J15">
+        <v>0.4318985533578825</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.801633628444108</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.6499005936385061</v>
+      </c>
+      <c r="E16">
+        <v>0.03514250702547983</v>
+      </c>
+      <c r="F16">
+        <v>19.60502937119418</v>
+      </c>
+      <c r="G16">
+        <v>0.002651717916022237</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5.835670441680236</v>
+      </c>
+      <c r="J16">
+        <v>0.4223318423094753</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.731372246121111</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.6250028211587733</v>
+      </c>
+      <c r="E17">
+        <v>0.03506652608743277</v>
+      </c>
+      <c r="F17">
+        <v>19.2158656088003</v>
+      </c>
+      <c r="G17">
+        <v>0.002664340985623964</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.608601612490247</v>
+      </c>
+      <c r="J17">
+        <v>0.4166295684210297</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.690909632146315</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.6108037630710896</v>
+      </c>
+      <c r="E18">
+        <v>0.03502343978294853</v>
+      </c>
+      <c r="F18">
+        <v>18.99510174757768</v>
+      </c>
+      <c r="G18">
+        <v>0.002671661384941832</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.477907426102888</v>
+      </c>
+      <c r="J18">
+        <v>0.4134087122703534</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.677201143001298</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.606016369294764</v>
+      </c>
+      <c r="E19">
+        <v>0.03500895424207062</v>
+      </c>
+      <c r="F19">
+        <v>18.92086995716716</v>
+      </c>
+      <c r="G19">
+        <v>0.00267415038542366</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5.433641513037287</v>
+      </c>
+      <c r="J19">
+        <v>0.4123280998261833</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.738856893519426</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.6276404903995854</v>
+      </c>
+      <c r="E20">
+        <v>0.03507454991208636</v>
+      </c>
+      <c r="F20">
+        <v>19.25697168120826</v>
+      </c>
+      <c r="G20">
+        <v>0.002662991068792673</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.632782903627174</v>
+      </c>
+      <c r="J20">
+        <v>0.4172304348988973</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.945408141631845</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.7017999975496991</v>
+      </c>
+      <c r="E21">
+        <v>0.03530253620536072</v>
+      </c>
+      <c r="F21">
+        <v>20.42391920791977</v>
+      </c>
+      <c r="G21">
+        <v>0.002626202488374032</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6.300765052729844</v>
+      </c>
+      <c r="J21">
+        <v>0.4344219244365775</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2.079940855282018</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.7515173987740695</v>
+      </c>
+      <c r="E22">
+        <v>0.03545775623088421</v>
+      </c>
+      <c r="F22">
+        <v>21.21699658145064</v>
+      </c>
+      <c r="G22">
+        <v>0.002602658689043092</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>6.736443306619492</v>
+      </c>
+      <c r="J22">
+        <v>0.4462325761064676</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2.008181005423069</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.724859310542854</v>
+      </c>
+      <c r="E23">
+        <v>0.03537430574059464</v>
+      </c>
+      <c r="F23">
+        <v>20.79077763168027</v>
+      </c>
+      <c r="G23">
+        <v>0.002615180474084304</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6.503998686294892</v>
+      </c>
+      <c r="J23">
+        <v>0.4398738230187007</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.735473297351348</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.6264476437287954</v>
+      </c>
+      <c r="E24">
+        <v>0.03507092049209781</v>
+      </c>
+      <c r="F24">
+        <v>19.23837840274791</v>
+      </c>
+      <c r="G24">
+        <v>0.002663601168917855</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.621851005971394</v>
+      </c>
+      <c r="J24">
+        <v>0.4169586047354841</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.439406031739964</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.5248593526082459</v>
+      </c>
+      <c r="E25">
+        <v>0.03476687652351895</v>
+      </c>
+      <c r="F25">
+        <v>17.67990104432994</v>
+      </c>
+      <c r="G25">
+        <v>0.002718139285671933</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.666914883151151</v>
+      </c>
+      <c r="J25">
+        <v>0.3944705299315814</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
